--- a/work/linux/gpp使用端口整理.xlsx
+++ b/work/linux/gpp使用端口整理.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\linux\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thana\Desktop\gpp_project\work\linux\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C1E64D2-EE19-4AF3-BB83-F67CCA85DB08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7201545E-9775-42A2-BE10-215E79E9C428}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="165" windowWidth="20925" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="23657" windowHeight="15240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -538,20 +538,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.875" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" customWidth="1"/>
     <col min="3" max="3" width="17.5" customWidth="1"/>
-    <col min="4" max="4" width="19.125" customWidth="1"/>
-    <col min="5" max="5" width="12.875" customWidth="1"/>
-    <col min="6" max="6" width="13.625" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1"/>
+    <col min="6" max="6" width="13.640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -571,7 +571,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
         <v>13</v>
       </c>
@@ -585,7 +585,7 @@
       </c>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="9"/>
       <c r="B3" s="3">
         <v>8889</v>
@@ -603,7 +603,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="9"/>
       <c r="B4" s="3">
         <v>8890</v>
@@ -617,7 +617,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="9"/>
       <c r="B5" s="3">
         <v>8891</v>
@@ -629,7 +629,7 @@
       </c>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="9"/>
       <c r="B6" s="3">
         <v>8892</v>
@@ -647,7 +647,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="9"/>
       <c r="B7" s="3">
         <v>8893</v>
@@ -659,7 +659,7 @@
       </c>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="9"/>
       <c r="B8" s="3">
         <v>8894</v>
@@ -677,7 +677,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="9"/>
       <c r="B9" s="3">
         <v>8895</v>
@@ -695,7 +695,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="9"/>
       <c r="B10" s="3">
         <v>8896</v>
@@ -713,7 +713,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="9"/>
       <c r="B11" s="3">
         <v>8897</v>
@@ -731,7 +731,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="9"/>
       <c r="B12" s="3">
         <v>8898</v>
@@ -749,7 +749,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="9"/>
       <c r="B13" s="4">
         <v>8001</v>
@@ -767,7 +767,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="9"/>
       <c r="B14" s="4">
         <v>8002</v>
@@ -783,7 +783,7 @@
       </c>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="9"/>
       <c r="B15" s="4">
         <v>8003</v>
@@ -797,7 +797,7 @@
       </c>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="9"/>
       <c r="B16" s="4">
         <v>8004</v>
@@ -811,7 +811,7 @@
       </c>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="9"/>
       <c r="B17" s="4">
         <v>8005</v>
@@ -825,7 +825,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>5</v>
       </c>
@@ -841,7 +841,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>8</v>
       </c>
@@ -857,16 +857,16 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" ht="17.149999999999999" x14ac:dyDescent="0.35">
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="17.149999999999999" x14ac:dyDescent="0.35">
       <c r="B21" s="1"/>
     </row>
-    <row r="22" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" ht="17.149999999999999" x14ac:dyDescent="0.35">
       <c r="B22" s="1"/>
     </row>
-    <row r="23" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" ht="17.149999999999999" x14ac:dyDescent="0.35">
       <c r="B23" s="1"/>
     </row>
   </sheetData>
@@ -883,17 +883,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5484116-F30F-406D-830E-DC86A4207E26}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.125" customWidth="1"/>
-    <col min="3" max="3" width="22.125" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -904,7 +904,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
         <v>22</v>
       </c>
@@ -915,7 +915,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="9"/>
       <c r="B3" s="7" t="s">
         <v>27</v>
@@ -933,5 +933,6 @@
     <hyperlink ref="C2" r:id="rId1" xr:uid="{777AF0E0-A425-4C5D-A1B5-18C365DECBBE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>